--- a/CVX_Kenya/Old Code/Interventions/Ecopulpers.xlsx
+++ b/CVX_Kenya/Old Code/Interventions/Ecopulpers.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gollinucci\Documents\GitHub\CIVICS_Kenya\CVX_Kenya\Interventions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\payam\Documents\GitHub\CIVICS_Kenya\CVX_Kenya\Old Code\Interventions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48BB93F5-F271-4DA9-9394-370B1E8F9014}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20D8B37C-AF1D-4294-BF81-E0F3EDF7FFD2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4170" yWindow="-21720" windowWidth="38640" windowHeight="21240" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="S" sheetId="7" r:id="rId1"/>
@@ -1630,8 +1630,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView zoomScale="113" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" zoomScale="113" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1745,8 +1745,9 @@
       <c r="F3" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="G3" s="5">
-        <v>7.5067782075000002E-3</v>
+      <c r="G3" s="45">
+        <f>main!C30</f>
+        <v>8.0667432846000004E-4</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>219</v>
@@ -2656,8 +2657,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3137,8 +3138,8 @@
         <v>192</v>
       </c>
       <c r="C30" s="29">
-        <f>C26/1000</f>
-        <v>0.80667432846000009</v>
+        <f>C26/1000000</f>
+        <v>8.0667432846000004E-4</v>
       </c>
       <c r="D30" s="25"/>
       <c r="E30" s="25" t="s">
